--- a/products/facilities/medical-centers/services-taxonomy/taxonomy-research-2021/services-research-categorization-Oct2021.xlsx
+++ b/products/facilities/medical-centers/services-taxonomy/taxonomy-research-2021/services-research-categorization-Oct2021.xlsx
@@ -8,26 +8,38 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2755EA49-6962-7C46-A9F5-DDDA3F2553AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54EDF36-F1A6-C149-B656-B670D5BF32E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-40" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Audit Research" sheetId="7" r:id="rId1"/>
+    <sheet name="Research Groups" sheetId="8" r:id="rId1"/>
     <sheet name="New Services Reseach" sheetId="6" r:id="rId2"/>
-    <sheet name="New Services Review" sheetId="5" r:id="rId3"/>
-    <sheet name="New Services" sheetId="1" r:id="rId4"/>
-    <sheet name="#30839 Audit" sheetId="2" r:id="rId5"/>
-    <sheet name="Original Export" sheetId="3" r:id="rId6"/>
+    <sheet name="Audit Review" sheetId="7" r:id="rId3"/>
+    <sheet name="New Services Review" sheetId="5" r:id="rId4"/>
+    <sheet name="New Services" sheetId="1" r:id="rId5"/>
+    <sheet name="#30839 Audit" sheetId="2" r:id="rId6"/>
+    <sheet name="Original Export" sheetId="3" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'#30839 Audit'!$G$2:$O$98</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'New Services Review'!$A$1:$I$73</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'#30839 Audit'!$G$2:$O$98</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">'Audit Review'!$A$1:$G$38</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'New Services Reseach'!#REF!</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'New Services Review'!$A$1:$I$73</definedName>
   </definedNames>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext uri="GoogleSheetsCustomDataVersion1">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId7" roundtripDataSignature="AMtx7mhTsY+Rhkl1inrBzxWaXkMg3PIl5g=="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId8" roundtripDataSignature="AMtx7mhTsY+Rhkl1inrBzxWaXkMg3PIl5g=="/>
     </ext>
   </extLst>
 </workbook>
@@ -39,6 +51,97 @@
     <author/>
   </authors>
   <commentList>
+    <comment ref="A13" authorId="0" shapeId="0" xr:uid="{85BC99B9-82E3-B941-BCF5-0BAED0E2F13D}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Should this be a service of its own? Should the existing taxon "HIV/hepatitis care" be divided into two distinct services?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A49" authorId="0" shapeId="0" xr:uid="{5910B645-840F-7F40-AD86-0A6D901581A0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Should this be a service of its own? Should the existing taxon "HIV/hepatitis care" be divided into two distinct services?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+  </authors>
+  <commentList>
+    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{35D178A0-AE44-F543-B3A1-26B88BB71A83}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Should this be a service of its own? Should the existing taxon "HIV/hepatitis care" be divided into two distinct services?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author/>
+    <author>tc={82A69A19-ABB8-E444-844C-579AB2DB0D22}</author>
+    <author>tc={A472A941-2102-0445-852E-D3B14F915440}</author>
+  </authors>
+  <commentList>
     <comment ref="E4" authorId="0" shapeId="0" xr:uid="{CC807C0A-CAC9-A14C-9644-DD83DD84E74E}">
       <text>
         <r>
@@ -46,6 +149,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">Being under primary care seems surprising. Could be in a category with "Patient advocates", like a "people who can help me with..." type category
 </t>
@@ -55,6 +159,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======</t>
         </r>
@@ -81,6 +186,14 @@
           </rPr>
           <t>======</t>
         </r>
+      </text>
+    </comment>
+    <comment ref="I4" authorId="1" shapeId="0" xr:uid="{82A69A19-ABB8-E444-844C-579AB2DB0D22}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Vet Centers only</t>
       </text>
     </comment>
     <comment ref="M4" authorId="0" shapeId="0" xr:uid="{F00AE9B6-F4C7-0740-9BA1-948BAF65E1D7}">
@@ -173,6 +286,14 @@
         </r>
       </text>
     </comment>
+    <comment ref="I5" authorId="2" shapeId="0" xr:uid="{A472A941-2102-0445-852E-D3B14F915440}">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Vet Centers only</t>
+      </text>
+    </comment>
     <comment ref="M5" authorId="0" shapeId="0" xr:uid="{A3CDBE84-67AE-E446-ABAC-E907F95C6C26}">
       <text>
         <r>
@@ -239,6 +360,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">"other" is meaningless as a category to help define this.
 </t>
@@ -248,6 +370,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t>======</t>
         </r>
@@ -366,9 +489,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
-          <t>Could be Mental health care
-======</t>
+          <t xml:space="preserve">Could be Mental health care
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
         </r>
       </text>
     </comment>
@@ -438,9 +571,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
-          <t>This is not self explanatory. Would a Veteran know what this is?
-======</t>
+          <t xml:space="preserve">This is not self explanatory. Would a Veteran know what this is?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
         </r>
       </text>
     </comment>
@@ -464,9 +607,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
-          <t>This also be thought of as a social program
-======</t>
+          <t xml:space="preserve">This also be thought of as a social program
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
         </r>
       </text>
     </comment>
@@ -477,9 +630,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
-          <t>This seems like it could fall under a 'wellness' category of some sort. Less "I'm going to see a specialist" -vs "Bariatric surgery" which feels more straightforward as a specialist you'd go see.
-======</t>
+          <t xml:space="preserve">This seems like it could fall under a 'wellness' category of some sort. Less "I'm going to see a specialist" -vs "Bariatric surgery" which feels more straightforward as a specialist you'd go see.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
         </r>
       </text>
     </comment>
@@ -503,10 +666,39 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
-          <t>Could there be sub-categories in the realm of wellness, weight, etc
-could services be cross-promoted? if a Veteran clicked on this service somewhere in the accordion there could be a clickable tag to "MOVE! weight management and bariatric surgery" to help Veterans discover and get exposed to other terms and services.
-======</t>
+          <t xml:space="preserve">Could there be sub-categories in the realm of wellness, weight, etc
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">could services be cross-promoted? if a Veteran clicked on this service somewhere in the accordion there could be a clickable tag to "MOVE! weight management and bariatric surgery" to help Veterans discover and get exposed to other terms and services.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
         </r>
       </text>
     </comment>
@@ -517,10 +709,39 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
-          <t>consider a plain language subcategory, "eye care"
-could services be cross-promoted? if a Veteran clicked on this service somewhere in the accordion there could be a clickable tag to "Optometry" to help Veterans discover and get exposed to other terms and services.
-======</t>
+          <t xml:space="preserve">consider a plain language subcategory, "eye care"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">could services be cross-promoted? if a Veteran clicked on this service somewhere in the accordion there could be a clickable tag to "Optometry" to help Veterans discover and get exposed to other terms and services.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
         </r>
       </text>
     </comment>
@@ -531,6 +752,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">consider a plain language subcategory, "eye care"
 </t>
@@ -540,6 +762,7 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 </t>
@@ -549,8 +772,169 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">could services be cross-promoted? if a Veteran clicked on this service somewhere in the accordion there could be a clickable tag to "Ophthalmology" to help Veterans discover and get exposed to other terms and services.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{5027600D-BE54-1E40-A674-5266CC7D8CB4}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">There could be in a category like "people who can help me with..." for "MyHealtheVet coordinator", "Patient advocates", "Advice Nurse"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{B337AC44-CB54-0B43-A0CF-16393AA2632C}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Add actions used on HP &amp; VAMC: "Refill and track your prescriptions"
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{A4B22665-DCEC-E84C-90BB-E65968C6EDA2}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">cross-promote with mental health care type services
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{EAF05E89-BD33-BE47-9038-20D644011193}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Could be cross promoted / grouped with "Cancer care" so that it could be more discoverable.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{0E6965F4-9C65-4D45-9AAB-91A8FE81C191}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Would a Veteran look for "Radiation oncology"? 
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{8D7E4822-8420-4341-9B8E-5DEAFC2FF4D0}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">This could be better suited in a "wellness" category
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{91AD5D57-1BAE-6144-B2E4-1FE1648551FB}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t xml:space="preserve">This seems like it belongs in a category of its own and grouped with other services like, "Returning service member care"
 </t>
         </r>
         <r>
@@ -563,97 +947,6 @@
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{5027600D-BE54-1E40-A674-5266CC7D8CB4}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>There could be in a category like "people who can help me with..." for "MyHealtheVet coordinator", "Patient advocates", "Advice Nurse"
-======</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G22" authorId="0" shapeId="0" xr:uid="{B337AC44-CB54-0B43-A0CF-16393AA2632C}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Add actions used on HP &amp; VAMC: "Refill and track your prescriptions"
-======</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E23" authorId="0" shapeId="0" xr:uid="{A4B22665-DCEC-E84C-90BB-E65968C6EDA2}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>cross-promote with mental health care type services
-======</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E24" authorId="0" shapeId="0" xr:uid="{EAF05E89-BD33-BE47-9038-20D644011193}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Could be cross promoted / grouped with "Cancer care" so that it could be more discoverable.
-======</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="F24" authorId="0" shapeId="0" xr:uid="{0E6965F4-9C65-4D45-9AAB-91A8FE81C191}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>Would a Veteran look for "Radiation oncology"? 
-======</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E25" authorId="0" shapeId="0" xr:uid="{8D7E4822-8420-4341-9B8E-5DEAFC2FF4D0}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>This could be better suited in a "wellness" category
-======</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E26" authorId="0" shapeId="0" xr:uid="{91AD5D57-1BAE-6144-B2E4-1FE1648551FB}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-          </rPr>
-          <t>This seems like it belongs in a category of its own and grouped with other services like, "Returning service member care"
-======</t>
-        </r>
-      </text>
-    </comment>
     <comment ref="F26" authorId="0" shapeId="0" xr:uid="{AC703C5B-0FB0-D348-B66D-8114B6371ECF}">
       <text>
         <r>
@@ -662,8 +955,16 @@
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
           </rPr>
-          <t>Would a non-military, like a caretaker know how to find this? "Registry exams" doesn't sound self explanatory.
-======</t>
+          <t xml:space="preserve">Would a non-military, like a caretaker know how to find this? "Registry exams" doesn't sound self explanatory.
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+          </rPr>
+          <t>======</t>
         </r>
       </text>
     </comment>
@@ -700,9 +1001,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
-          <t>This seems like it could be a category of its own rather than the name of a service since it is broad, non-specific and could take many forms
-======</t>
+          <t xml:space="preserve">This seems like it could be a category of its own rather than the name of a service since it is broad, non-specific and could take many forms
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
         </r>
       </text>
     </comment>
@@ -916,40 +1227,7 @@
 </comments>
 </file>
 
-<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author/>
-  </authors>
-  <commentList>
-    <comment ref="E12" authorId="0" shapeId="0" xr:uid="{35D178A0-AE44-F543-B3A1-26B88BB71A83}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t xml:space="preserve">Should this be a service of its own? Should the existing taxon "HIV/hepatitis care" be divided into two distinct services?
-</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Arial"/>
-            <family val="2"/>
-          </rPr>
-          <t>======</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -982,7 +1260,7 @@
 </comments>
 </file>
 
-<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -1015,7 +1293,7 @@
 </comments>
 </file>
 
-<file path=xl/comments5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/comments6.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
@@ -1234,9 +1512,19 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Arial"/>
+            <family val="2"/>
           </rPr>
-          <t>This is not self explanatory. Would a Veteran know what this is?
-======</t>
+          <t xml:space="preserve">This is not self explanatory. Would a Veteran know what this is?
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color rgb="FF000000"/>
+            <rFont val="Arial"/>
+            <family val="2"/>
+          </rPr>
+          <t>======</t>
         </r>
       </text>
     </comment>
@@ -1688,7 +1976,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2124" uniqueCount="608">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="638">
   <si>
     <t>TASK: As a Veteran, I am trying to</t>
   </si>
@@ -3918,9 +4206,6 @@
     <t>Find a VA Location [global header]</t>
   </si>
   <si>
-    <t>New Services</t>
-  </si>
-  <si>
     <t>Not explicit; perhaps through a coordinator?</t>
   </si>
   <si>
@@ -3933,9 +4218,6 @@
     <t>Check your billing, insurance, and payment options</t>
   </si>
   <si>
-    <t>Benefits services (not at VAMC) - taxonomy research</t>
-  </si>
-  <si>
     <t>Mapping / categorization validation research</t>
   </si>
   <si>
@@ -3952,13 +4234,109 @@
   </si>
   <si>
     <t>"Other" services requiring discovery</t>
+  </si>
+  <si>
+    <t>Validating category - closed sort</t>
+  </si>
+  <si>
+    <t>Discovering category - hybrid sort</t>
+  </si>
+  <si>
+    <t>Benefits services (not at VAMC) - for future taxonomy research</t>
+  </si>
+  <si>
+    <t>Category Research</t>
+  </si>
+  <si>
+    <t>Experimental categories</t>
+  </si>
+  <si>
+    <t>Health care management</t>
+  </si>
+  <si>
+    <t>Validation Research</t>
+  </si>
+  <si>
+    <t>Discovery Research</t>
+  </si>
+  <si>
+    <t>FOIA Requests</t>
+  </si>
+  <si>
+    <t>Privacy office</t>
+  </si>
+  <si>
+    <t>Lodging for patients and families, Hotel and lodging program</t>
+  </si>
+  <si>
+    <t>New Services - Future Research</t>
+  </si>
+  <si>
+    <t>Get medical records</t>
+  </si>
+  <si>
+    <t>Patient advocate</t>
+  </si>
+  <si>
+    <t>MyHealtheVet coordinator</t>
+  </si>
+  <si>
+    <t>COVID-19 vaccines at VA</t>
+  </si>
+  <si>
+    <t>Walk-in drug or alcohol evaluation and treatment</t>
+  </si>
+  <si>
+    <t>Service / task research</t>
+  </si>
+  <si>
+    <t>Validating service / task</t>
+  </si>
+  <si>
+    <t>Discovering service / task</t>
+  </si>
+  <si>
+    <t>Existing services / tasks</t>
+  </si>
+  <si>
+    <t>Get assistance from a person</t>
+  </si>
+  <si>
+    <t>"New" Services Research</t>
+  </si>
+  <si>
+    <t>Experimental services/tasks</t>
+  </si>
+  <si>
+    <t>Get your VA medical records</t>
+  </si>
+  <si>
+    <t>Medical records office</t>
+  </si>
+  <si>
+    <t>Chaplain services, spiritual care</t>
+  </si>
+  <si>
+    <t>*add new category*</t>
+  </si>
+  <si>
+    <t>*add new service*</t>
+  </si>
+  <si>
+    <t>"Other" services requiring discovery research</t>
+  </si>
+  <si>
+    <t>Existing Services Research</t>
+  </si>
+  <si>
+    <t>Existing categories</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="37" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4171,8 +4549,37 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -4203,6 +4610,60 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -4217,7 +4678,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4278,6 +4739,39 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="10" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="12" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="31" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4294,6 +4788,12 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <person displayName="Nick Osmanski" id="{7CA5F13A-0D22-7545-BAC0-1C4E708068B7}" userId="S::nick@amida.onmicrosoft.com::ae568eac-f358-49a6-8860-6578bff83476" providerId="AD"/>
+</personList>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -4492,916 +4992,835 @@
 </a:theme>
 </file>
 
+<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
+<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <threadedComment ref="I4" dT="2021-10-29T16:27:46.69" personId="{7CA5F13A-0D22-7545-BAC0-1C4E708068B7}" id="{82A69A19-ABB8-E444-844C-579AB2DB0D22}">
+    <text>Vet Centers only</text>
+  </threadedComment>
+  <threadedComment ref="I5" dT="2021-10-29T16:27:58.22" personId="{7CA5F13A-0D22-7545-BAC0-1C4E708068B7}" id="{A472A941-2102-0445-852E-D3B14F915440}">
+    <text>Vet Centers only</text>
+  </threadedComment>
+</ThreadedComments>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1E8117-D9F8-BC45-8C2A-FB3F0539BAE0}">
-  <dimension ref="A1:O39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AAD27F-6AD0-5647-A54B-5E20198453CD}">
+  <dimension ref="A1:D109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="134" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="C83" sqref="C83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14" style="28" customWidth="1"/>
-    <col min="3" max="3" width="11" style="28" customWidth="1"/>
-    <col min="4" max="8" width="10.83203125" style="28"/>
-    <col min="9" max="9" width="36.1640625" style="28" bestFit="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.83203125" style="28"/>
+    <col min="1" max="1" width="38.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="52" style="28" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="38.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="10.83203125" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="46" t="s">
-        <v>605</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="A2" s="48" t="s">
+    <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="60" t="s">
+        <v>628</v>
+      </c>
+      <c r="B1" s="60"/>
+      <c r="C1" s="60"/>
+      <c r="D1" s="60"/>
+    </row>
+    <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A3" s="59" t="s">
+        <v>609</v>
+      </c>
+      <c r="B3" s="59"/>
+      <c r="C3" s="59"/>
+      <c r="D3" s="59"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="70" t="s">
         <v>606</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="48"/>
-      <c r="D2" s="48"/>
-      <c r="E2" s="48"/>
-      <c r="F2" s="48"/>
-      <c r="G2" s="48"/>
-      <c r="I2" s="49" t="s">
+      <c r="B4" s="71" t="s">
         <v>607</v>
       </c>
-      <c r="J2" s="49"/>
-      <c r="K2" s="49"/>
-      <c r="L2" s="49"/>
-      <c r="M2" s="49"/>
-      <c r="N2" s="49"/>
-      <c r="O2" s="49"/>
-    </row>
-    <row r="3" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="H3" s="47"/>
-      <c r="I3" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="J3" s="18" t="s">
-        <v>188</v>
-      </c>
-      <c r="K3" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="L3" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="M3" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="N3" s="18" t="s">
-        <v>192</v>
-      </c>
-      <c r="O3" s="18" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="C4" s="61" t="s">
+        <v>637</v>
+      </c>
+      <c r="D4" s="61" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C5" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D5" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>614</v>
+      </c>
+      <c r="C6" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D6" s="28" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="34" t="s">
+        <v>615</v>
+      </c>
+      <c r="C7" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C8" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D8" s="28" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="34" t="s">
+        <v>616</v>
+      </c>
+      <c r="C9" s="28" t="s">
+        <v>245</v>
+      </c>
+      <c r="D9" s="28" t="s">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C10" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B13" s="34" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A14" s="31" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A15" s="34" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A16" s="31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A17" s="31" t="s">
+        <v>557</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A18" s="31" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" s="34" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31" t="s">
         <v>205</v>
       </c>
-      <c r="D4" s="23" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A23" s="38" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A24" s="38" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A25" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A26" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A27" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A28" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A29" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A30" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A31" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A32" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="34" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="31" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="59" t="s">
+        <v>623</v>
+      </c>
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="70" t="s">
+        <v>624</v>
+      </c>
+      <c r="B40" s="70" t="s">
+        <v>625</v>
+      </c>
+      <c r="C40" s="61" t="s">
+        <v>626</v>
+      </c>
+      <c r="D40" s="61" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B41" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="28" t="s">
+        <v>318</v>
+      </c>
+      <c r="D41" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B42" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="C42" s="28" t="s">
+        <v>389</v>
+      </c>
+      <c r="D42" s="28" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="B43" s="34" t="s">
+        <v>630</v>
+      </c>
+      <c r="C43" s="28" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="34" t="s">
+        <v>618</v>
+      </c>
+      <c r="B44" s="34" t="s">
+        <v>631</v>
+      </c>
+      <c r="C44" s="28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="31" t="s">
+        <v>22</v>
+      </c>
+      <c r="B45" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="28" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="B46" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="C46" s="28" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="34" t="s">
+        <v>36</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>149</v>
+      </c>
+      <c r="C47" s="31" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="34" t="s">
+        <v>38</v>
+      </c>
+      <c r="B48" s="34" t="s">
+        <v>42</v>
+      </c>
+      <c r="C48" s="28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A49" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B49" s="34" t="s">
+        <v>80</v>
+      </c>
+      <c r="C49" s="28" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A50" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="B50" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="C50" s="28" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A51" s="34" t="s">
+        <v>48</v>
+      </c>
+      <c r="B51" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="C51" s="38" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A52" s="31" t="s">
+        <v>50</v>
+      </c>
+      <c r="B52" s="31" t="s">
+        <v>156</v>
+      </c>
+      <c r="C52" s="38" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A53" s="31" t="s">
+        <v>557</v>
+      </c>
+      <c r="B53" s="31" t="s">
+        <v>632</v>
+      </c>
+      <c r="C53" s="28" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A54" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54" s="31" t="s">
+        <v>160</v>
+      </c>
+      <c r="C54" s="38" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A55" s="34" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="C55" s="38" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A56" s="31" t="s">
+        <v>619</v>
+      </c>
+      <c r="C56" s="38" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A57" s="31" t="s">
+        <v>205</v>
+      </c>
+      <c r="C57" s="28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A58" s="31" t="s">
+        <v>112</v>
+      </c>
+      <c r="C58" s="28" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A59" s="38" t="s">
+        <v>117</v>
+      </c>
+      <c r="C59" s="38" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A60" s="38" t="s">
+        <v>118</v>
+      </c>
+      <c r="C60" s="38" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A61" s="38" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A62" s="34" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A63" s="34" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A64" s="31" t="s">
+        <v>620</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="31" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="31" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="31" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="34" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="31" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="31" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="34" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="31" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75" s="68" t="s">
+        <v>636</v>
+      </c>
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
+      <c r="D75" s="68"/>
+    </row>
+    <row r="77" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77" s="72" t="s">
+        <v>612</v>
+      </c>
+      <c r="B77" s="72"/>
+      <c r="C77" s="72"/>
+      <c r="D77" s="72"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="73" t="s">
+        <v>606</v>
+      </c>
+      <c r="B78" s="73" t="s">
+        <v>607</v>
+      </c>
+      <c r="C78" s="69" t="s">
+        <v>637</v>
+      </c>
+      <c r="D78" s="69" t="s">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="C79" s="28" t="s">
         <v>165</v>
       </c>
-      <c r="E4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I4" s="23" t="s">
+      <c r="D79" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="C80" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="L4" s="23" t="s">
+      <c r="B81" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C81" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D81" s="28" t="s">
+        <v>611</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="28" t="s">
+        <v>249</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C82" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D82" s="28" t="s">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C83" s="28" t="s">
         <v>245</v>
       </c>
-      <c r="M4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N4" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O4" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="23" t="s">
-        <v>221</v>
-      </c>
-      <c r="B5" s="23" t="s">
-        <v>222</v>
-      </c>
-      <c r="D5" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E5" s="14" t="b">
-        <v>0</v>
-      </c>
-      <c r="F5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I5" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="L5" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="M5" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N5" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O5" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" s="23" t="s">
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="C84" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="28" t="s">
+        <v>355</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="28" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="28" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="28" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="28" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="28" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="28" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="28" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="28" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A101" s="72" t="s">
+        <v>613</v>
+      </c>
+      <c r="B101" s="72"/>
+      <c r="C101" s="72"/>
+      <c r="D101" s="72"/>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="74" t="s">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="L6" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="M6" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N6" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O6" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23" t="s">
-        <v>243</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E7" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F7" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G7" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" s="23" t="s">
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="L7" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="M7" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N7" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O7" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23" t="s">
-        <v>249</v>
-      </c>
-      <c r="D8" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F8" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G8" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" s="23" t="s">
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="J8" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="L8" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="M8" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N8" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O8" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23" t="s">
-        <v>252</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>253</v>
-      </c>
-      <c r="D9" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E9" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G9" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I9" s="23" t="s">
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="L9" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="M9" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N9" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O9" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23" t="s">
-        <v>289</v>
-      </c>
-      <c r="D10" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F10" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G10" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I10" s="23" t="s">
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="28" t="s">
         <v>498</v>
       </c>
-      <c r="J10" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="M10" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N10" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O10" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23" t="s">
-        <v>298</v>
-      </c>
-      <c r="C11" s="23" t="s">
-        <v>299</v>
-      </c>
-      <c r="D11" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E11" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F11" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G11" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I11" s="23" t="s">
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="28" t="s">
         <v>509</v>
       </c>
-      <c r="J11" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="L11" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="M11" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N11" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="O11" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23" t="s">
-        <v>306</v>
-      </c>
-      <c r="D12" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E12" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F12" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G12" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="I12" s="23" t="s">
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="28" t="s">
         <v>519</v>
       </c>
-      <c r="L12" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="M12" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="N12" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="O12" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="23" t="s">
-        <v>331</v>
-      </c>
-      <c r="D13" s="23" t="s">
-        <v>202</v>
-      </c>
-      <c r="E13" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F13" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G13" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="23" t="s">
-        <v>337</v>
-      </c>
-      <c r="C14" s="23" t="s">
-        <v>338</v>
-      </c>
-      <c r="D14" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F14" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="23" t="s">
-        <v>341</v>
-      </c>
-      <c r="D15" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E15" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F15" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G15" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="23" t="s">
-        <v>343</v>
-      </c>
-      <c r="B16" s="23" t="s">
-        <v>344</v>
-      </c>
-      <c r="C16" s="23" t="s">
-        <v>345</v>
-      </c>
-      <c r="D16" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E16" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F16" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G16" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>355</v>
-      </c>
-      <c r="D17" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E17" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F17" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G17" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="23" t="s">
-        <v>358</v>
-      </c>
-      <c r="B18" s="23" t="s">
-        <v>360</v>
-      </c>
-      <c r="C18" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="D18" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F18" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G18" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="23" t="s">
-        <v>363</v>
-      </c>
-      <c r="B19" s="23" t="s">
-        <v>365</v>
-      </c>
-      <c r="C19" s="23" t="s">
-        <v>366</v>
-      </c>
-      <c r="D19" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E19" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G19" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="23" t="s">
-        <v>375</v>
-      </c>
-      <c r="B20" s="23" t="s">
-        <v>376</v>
-      </c>
-      <c r="C20" s="23" t="s">
-        <v>377</v>
-      </c>
-      <c r="D20" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E20" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F20" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G20" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="23" t="s">
-        <v>387</v>
-      </c>
-      <c r="D21" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E21" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F21" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G21" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="23" t="s">
-        <v>389</v>
-      </c>
-      <c r="B22" s="23" t="s">
-        <v>390</v>
-      </c>
-      <c r="D22" s="23" t="s">
-        <v>165</v>
-      </c>
-      <c r="E22" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="F22" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G22" s="14" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>405</v>
-      </c>
-      <c r="B23" s="23" t="s">
-        <v>406</v>
-      </c>
-      <c r="D23" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E23" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F23" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G23" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="23" t="s">
-        <v>422</v>
-      </c>
-      <c r="D24" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E24" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F24" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G24" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="23" t="s">
-        <v>426</v>
-      </c>
-      <c r="D25" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E25" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F25" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G25" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="23" t="s">
-        <v>429</v>
-      </c>
-      <c r="B26" s="23" t="s">
-        <v>430</v>
-      </c>
-      <c r="D26" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E26" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F26" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G26" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="23" t="s">
-        <v>432</v>
-      </c>
-      <c r="D27" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E27" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F27" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G27" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="23" t="s">
-        <v>434</v>
-      </c>
-      <c r="B28" s="23" t="s">
-        <v>435</v>
-      </c>
-      <c r="D28" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E28" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F28" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G28" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="23" t="s">
-        <v>437</v>
-      </c>
-      <c r="B29" s="23" t="s">
-        <v>438</v>
-      </c>
-      <c r="D29" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E29" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F29" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G29" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="23" t="s">
-        <v>450</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>451</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E30" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F30" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G30" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="23" t="s">
-        <v>454</v>
-      </c>
-      <c r="D31" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E31" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F31" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G31" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="23" t="s">
-        <v>468</v>
-      </c>
-      <c r="B32" s="23" t="s">
-        <v>469</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E32" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F32" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G32" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A33" s="23" t="s">
-        <v>478</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E33" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F33" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G33" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A34" s="23" t="s">
-        <v>495</v>
-      </c>
-      <c r="D34" s="14" t="s">
-        <v>497</v>
-      </c>
-      <c r="E34" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F34" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G34" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="23" t="s">
-        <v>498</v>
-      </c>
-      <c r="B35" s="23" t="s">
-        <v>499</v>
-      </c>
-      <c r="D35" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E35" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F35" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G35" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="23" t="s">
-        <v>504</v>
-      </c>
-      <c r="B36" s="23" t="s">
-        <v>505</v>
-      </c>
-      <c r="C36" s="23" t="s">
-        <v>506</v>
-      </c>
-      <c r="D36" s="23" t="s">
-        <v>209</v>
-      </c>
-      <c r="E36" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F36" s="23" t="b">
-        <v>0</v>
-      </c>
-      <c r="G36" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="23" t="s">
-        <v>509</v>
-      </c>
-      <c r="B37" s="23" t="s">
-        <v>510</v>
-      </c>
-      <c r="D37" s="23" t="s">
-        <v>245</v>
-      </c>
-      <c r="E37" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F37" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G37" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A38" s="23" t="s">
-        <v>513</v>
-      </c>
-      <c r="C38" s="23" t="s">
-        <v>514</v>
-      </c>
-      <c r="D38" s="23" t="s">
-        <v>198</v>
-      </c>
-      <c r="E38" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="F38" s="14" t="b">
-        <v>1</v>
-      </c>
-      <c r="G38" s="23" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A39" s="23"/>
-      <c r="D39" s="14"/>
-      <c r="E39" s="14"/>
-      <c r="F39" s="23"/>
-      <c r="G39" s="23"/>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="I2:O2"/>
+  <mergeCells count="6">
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A39:D39"/>
+    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A75:D75"/>
+    <mergeCell ref="A101:D101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5412,7 +5831,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A2862BA4-3E60-E34C-B64C-80FC01525714}">
   <dimension ref="A1:N45"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0"/>
+    <sheetView zoomScale="135" workbookViewId="0">
+      <selection activeCell="B10" sqref="B10"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
@@ -5420,13 +5841,13 @@
     <col min="2" max="2" width="81.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.83203125" style="28" customWidth="1"/>
     <col min="4" max="4" width="37.83203125" style="28" customWidth="1"/>
-    <col min="5" max="5" width="37.5" style="28" customWidth="1"/>
+    <col min="5" max="5" width="62.6640625" style="28" customWidth="1"/>
     <col min="6" max="6" width="21.33203125" style="28" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="22.1640625" style="28" customWidth="1"/>
-    <col min="8" max="8" width="24.33203125" style="28" customWidth="1"/>
+    <col min="7" max="7" width="25.33203125" style="28" customWidth="1"/>
+    <col min="8" max="8" width="41.33203125" style="28" customWidth="1"/>
     <col min="9" max="9" width="10.1640625" style="28" customWidth="1"/>
-    <col min="10" max="10" width="36.6640625" style="28" customWidth="1"/>
-    <col min="11" max="11" width="29.1640625" style="28" customWidth="1"/>
+    <col min="10" max="10" width="57.33203125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="52.33203125" style="28" customWidth="1"/>
     <col min="12" max="12" width="25.83203125" style="28" customWidth="1"/>
     <col min="13" max="13" width="12.6640625" style="28" customWidth="1"/>
     <col min="14" max="14" width="17.1640625" style="28" customWidth="1"/>
@@ -5435,24 +5856,24 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>596</v>
+        <v>617</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
-      <c r="A2" s="49" t="s">
-        <v>601</v>
-      </c>
-      <c r="B2" s="49"/>
+      <c r="A2" s="53" t="s">
+        <v>608</v>
+      </c>
+      <c r="B2" s="53"/>
       <c r="C2" s="44"/>
       <c r="D2" s="49" t="s">
-        <v>602</v>
+        <v>600</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="49"/>
       <c r="G2" s="49"/>
       <c r="H2" s="49"/>
       <c r="J2" s="49" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="K2" s="49"/>
       <c r="L2" s="49"/>
@@ -5636,7 +6057,7 @@
         <v>591</v>
       </c>
       <c r="H7" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="J7" s="34" t="s">
         <v>153</v>
@@ -5714,7 +6135,7 @@
         <v>591</v>
       </c>
       <c r="H9" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="J9" s="31" t="s">
         <v>157</v>
@@ -5819,7 +6240,7 @@
         <v>40</v>
       </c>
       <c r="F12" s="31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G12" s="28" t="s">
         <v>298</v>
@@ -6098,7 +6519,7 @@
         <v>245</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
@@ -6296,7 +6717,7 @@
         <v>169</v>
       </c>
       <c r="F38" s="28" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="G38" s="23" t="s">
         <v>199</v>
@@ -6346,13 +6767,1297 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C1E8117-D9F8-BC45-8C2A-FB3F0539BAE0}">
+  <dimension ref="A1:O59"/>
+  <sheetViews>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="40" style="28" customWidth="1"/>
+    <col min="2" max="2" width="25.5" style="28" customWidth="1"/>
+    <col min="3" max="3" width="18.1640625" style="28" customWidth="1"/>
+    <col min="4" max="4" width="22.5" style="28" customWidth="1"/>
+    <col min="5" max="8" width="10.83203125" style="28"/>
+    <col min="9" max="9" width="36.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.83203125" style="28" customWidth="1"/>
+    <col min="11" max="11" width="38.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="40.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="38.5" style="28" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="10.83203125" style="28"/>
+    <col min="15" max="15" width="24.1640625" style="28" bestFit="1" customWidth="1"/>
+    <col min="16" max="16384" width="10.83203125" style="28"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="A1" s="46" t="s">
+        <v>603</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="A2" s="48" t="s">
+        <v>604</v>
+      </c>
+      <c r="B2" s="48"/>
+      <c r="C2" s="48"/>
+      <c r="D2" s="48"/>
+      <c r="E2" s="48"/>
+      <c r="F2" s="48"/>
+      <c r="G2" s="48"/>
+      <c r="I2" s="49" t="s">
+        <v>605</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+    </row>
+    <row r="3" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="D3" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="F3" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>193</v>
+      </c>
+      <c r="H3" s="47"/>
+      <c r="I3" s="18" t="s">
+        <v>187</v>
+      </c>
+      <c r="J3" s="18" t="s">
+        <v>188</v>
+      </c>
+      <c r="K3" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="L3" s="18" t="s">
+        <v>190</v>
+      </c>
+      <c r="M3" s="18" t="s">
+        <v>191</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="O3" s="18" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="54" t="s">
+        <v>205</v>
+      </c>
+      <c r="D4" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G4" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I4" s="57" t="s">
+        <v>243</v>
+      </c>
+      <c r="L4" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="M4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N4" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O4" s="14" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="54" t="s">
+        <v>221</v>
+      </c>
+      <c r="B5" s="23" t="s">
+        <v>222</v>
+      </c>
+      <c r="D5" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E5" s="14" t="b">
+        <v>0</v>
+      </c>
+      <c r="F5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I5" s="57" t="s">
+        <v>249</v>
+      </c>
+      <c r="L5" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="M5" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N5" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O5" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="54" t="s">
+        <v>237</v>
+      </c>
+      <c r="D6" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I6" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="L6" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="M6" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N6" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O6" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="54" t="s">
+        <v>243</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I7" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="L7" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="M7" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N7" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O7" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="54" t="s">
+        <v>249</v>
+      </c>
+      <c r="D8" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F8" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G8" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I8" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="L8" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="M8" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N8" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O8" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="54" t="s">
+        <v>252</v>
+      </c>
+      <c r="C9" s="23" t="s">
+        <v>253</v>
+      </c>
+      <c r="D9" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I9" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="L9" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="M9" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N9" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O9" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>289</v>
+      </c>
+      <c r="D10" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F10" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G10" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I10" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="L10" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="M10" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N10" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O10" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="54" t="s">
+        <v>298</v>
+      </c>
+      <c r="C11" s="23" t="s">
+        <v>299</v>
+      </c>
+      <c r="D11" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E11" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F11" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G11" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I11" s="54" t="s">
+        <v>509</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="M11" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N11" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="O11" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="54" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E12" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I12" s="54" t="s">
+        <v>519</v>
+      </c>
+      <c r="L12" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="M12" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="N12" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="O12" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="54" t="s">
+        <v>331</v>
+      </c>
+      <c r="D13" s="23" t="s">
+        <v>202</v>
+      </c>
+      <c r="E13" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F13" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G13" s="23" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="C14" s="23" t="s">
+        <v>338</v>
+      </c>
+      <c r="D14" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E14" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F14" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G14" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I14" s="67"/>
+      <c r="J14" s="67"/>
+      <c r="K14" s="67"/>
+      <c r="L14" s="67"/>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+    </row>
+    <row r="15" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="54" t="s">
+        <v>341</v>
+      </c>
+      <c r="D15" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F15" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I15" s="66"/>
+      <c r="J15" s="62"/>
+      <c r="K15" s="55"/>
+      <c r="L15" s="62"/>
+      <c r="M15" s="55"/>
+      <c r="N15" s="52"/>
+      <c r="O15" s="55"/>
+    </row>
+    <row r="16" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="54" t="s">
+        <v>343</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>344</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>345</v>
+      </c>
+      <c r="D16" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E16" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G16" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I16" s="54"/>
+      <c r="J16" s="62"/>
+      <c r="K16" s="54"/>
+      <c r="L16" s="62"/>
+      <c r="M16" s="52"/>
+      <c r="N16" s="62"/>
+      <c r="O16" s="52"/>
+    </row>
+    <row r="17" spans="1:15" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="54" t="s">
+        <v>355</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E17" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F17" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G17" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I17" s="54"/>
+      <c r="J17" s="62"/>
+      <c r="K17" s="54"/>
+      <c r="L17" s="62"/>
+      <c r="M17" s="52"/>
+      <c r="N17" s="62"/>
+      <c r="O17" s="52"/>
+    </row>
+    <row r="18" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="54" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18" s="23" t="s">
+        <v>360</v>
+      </c>
+      <c r="C18" s="23" t="s">
+        <v>361</v>
+      </c>
+      <c r="D18" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G18" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I18" s="54"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="54"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="52"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="52"/>
+    </row>
+    <row r="19" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="54" t="s">
+        <v>363</v>
+      </c>
+      <c r="B19" s="23" t="s">
+        <v>365</v>
+      </c>
+      <c r="C19" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="D19" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E19" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F19" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G19" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I19" s="54"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="52"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="52"/>
+    </row>
+    <row r="20" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="54" t="s">
+        <v>375</v>
+      </c>
+      <c r="B20" s="23" t="s">
+        <v>376</v>
+      </c>
+      <c r="C20" s="23" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E20" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G20" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I20" s="54"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="54"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="52"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="52"/>
+    </row>
+    <row r="21" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="54" t="s">
+        <v>387</v>
+      </c>
+      <c r="D21" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E21" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F21" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G21" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I21" s="54"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="54"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="52"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+    </row>
+    <row r="22" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="54" t="s">
+        <v>389</v>
+      </c>
+      <c r="B22" s="23" t="s">
+        <v>390</v>
+      </c>
+      <c r="D22" s="23" t="s">
+        <v>165</v>
+      </c>
+      <c r="E22" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="F22" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G22" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="I22" s="54"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+    </row>
+    <row r="23" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="54" t="s">
+        <v>405</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>406</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E23" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F23" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G23" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I23" s="54"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="54"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+    </row>
+    <row r="24" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="54" t="s">
+        <v>422</v>
+      </c>
+      <c r="D24" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E24" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F24" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G24" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I24" s="54"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="54"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+    </row>
+    <row r="25" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="54" t="s">
+        <v>426</v>
+      </c>
+      <c r="D25" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E25" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F25" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G25" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I25" s="54"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+    </row>
+    <row r="26" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="54" t="s">
+        <v>429</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>430</v>
+      </c>
+      <c r="D26" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E26" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F26" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G26" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I26" s="54"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+    </row>
+    <row r="27" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="54" t="s">
+        <v>432</v>
+      </c>
+      <c r="D27" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E27" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F27" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G27" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I27" s="54"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+    </row>
+    <row r="28" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="54" t="s">
+        <v>434</v>
+      </c>
+      <c r="B28" s="23" t="s">
+        <v>435</v>
+      </c>
+      <c r="D28" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E28" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F28" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G28" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I28" s="54"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+    </row>
+    <row r="29" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="54" t="s">
+        <v>437</v>
+      </c>
+      <c r="B29" s="23" t="s">
+        <v>438</v>
+      </c>
+      <c r="D29" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E29" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F29" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G29" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I29" s="54"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+    </row>
+    <row r="30" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="54" t="s">
+        <v>450</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>451</v>
+      </c>
+      <c r="D30" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E30" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F30" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G30" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I30" s="54"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+    </row>
+    <row r="31" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="54" t="s">
+        <v>454</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E31" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F31" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G31" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I31" s="54"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+    </row>
+    <row r="32" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="54" t="s">
+        <v>468</v>
+      </c>
+      <c r="B32" s="23" t="s">
+        <v>469</v>
+      </c>
+      <c r="D32" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E32" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G32" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I32" s="54"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+    </row>
+    <row r="33" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="54" t="s">
+        <v>478</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E33" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F33" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G33" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I33" s="54"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+    </row>
+    <row r="34" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="54" t="s">
+        <v>495</v>
+      </c>
+      <c r="D34" s="14" t="s">
+        <v>497</v>
+      </c>
+      <c r="E34" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F34" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I34" s="54"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+    </row>
+    <row r="35" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="54" t="s">
+        <v>498</v>
+      </c>
+      <c r="B35" s="23" t="s">
+        <v>499</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E35" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F35" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G35" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I35" s="54"/>
+      <c r="J35" s="62"/>
+      <c r="K35" s="62"/>
+      <c r="L35" s="62"/>
+      <c r="M35" s="62"/>
+      <c r="N35" s="62"/>
+      <c r="O35" s="62"/>
+    </row>
+    <row r="36" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="54" t="s">
+        <v>504</v>
+      </c>
+      <c r="B36" s="23" t="s">
+        <v>505</v>
+      </c>
+      <c r="C36" s="23" t="s">
+        <v>506</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>209</v>
+      </c>
+      <c r="E36" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F36" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="G36" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I36" s="54"/>
+      <c r="J36" s="62"/>
+      <c r="K36" s="62"/>
+      <c r="L36" s="62"/>
+      <c r="M36" s="62"/>
+      <c r="N36" s="62"/>
+      <c r="O36" s="62"/>
+    </row>
+    <row r="37" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="54" t="s">
+        <v>509</v>
+      </c>
+      <c r="B37" s="23" t="s">
+        <v>510</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>245</v>
+      </c>
+      <c r="E37" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F37" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G37" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I37" s="54"/>
+      <c r="J37" s="62"/>
+      <c r="K37" s="62"/>
+      <c r="L37" s="62"/>
+      <c r="M37" s="63"/>
+      <c r="N37" s="63"/>
+      <c r="O37" s="63"/>
+    </row>
+    <row r="38" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="54" t="s">
+        <v>513</v>
+      </c>
+      <c r="C38" s="23" t="s">
+        <v>514</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>198</v>
+      </c>
+      <c r="E38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="F38" s="14" t="b">
+        <v>1</v>
+      </c>
+      <c r="G38" s="23" t="b">
+        <v>0</v>
+      </c>
+      <c r="I38" s="58"/>
+      <c r="J38" s="62"/>
+      <c r="K38" s="62"/>
+      <c r="L38" s="62"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="63"/>
+      <c r="O38" s="63"/>
+    </row>
+    <row r="39" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="23"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="14"/>
+      <c r="F39" s="23"/>
+      <c r="G39" s="23"/>
+      <c r="I39" s="56"/>
+      <c r="J39" s="62"/>
+      <c r="K39" s="62"/>
+      <c r="L39" s="62"/>
+      <c r="M39" s="63"/>
+      <c r="N39" s="63"/>
+      <c r="O39" s="63"/>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I40" s="54"/>
+      <c r="J40" s="62"/>
+      <c r="K40" s="62"/>
+      <c r="L40" s="62"/>
+      <c r="M40" s="63"/>
+      <c r="N40" s="63"/>
+      <c r="O40" s="63"/>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I41" s="54"/>
+      <c r="J41" s="62"/>
+      <c r="K41" s="62"/>
+      <c r="L41" s="62"/>
+      <c r="M41" s="63"/>
+      <c r="N41" s="63"/>
+      <c r="O41" s="63"/>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I42" s="54"/>
+      <c r="J42" s="62"/>
+      <c r="K42" s="62"/>
+      <c r="L42" s="62"/>
+      <c r="M42" s="63"/>
+      <c r="N42" s="63"/>
+      <c r="O42" s="63"/>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I43" s="54"/>
+      <c r="J43" s="62"/>
+      <c r="K43" s="62"/>
+      <c r="L43" s="62"/>
+      <c r="M43" s="63"/>
+      <c r="N43" s="63"/>
+      <c r="O43" s="63"/>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I44" s="54"/>
+      <c r="J44" s="62"/>
+      <c r="K44" s="62"/>
+      <c r="L44" s="62"/>
+      <c r="M44" s="63"/>
+      <c r="N44" s="63"/>
+      <c r="O44" s="63"/>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I45" s="54"/>
+      <c r="J45" s="62"/>
+      <c r="K45" s="62"/>
+      <c r="L45" s="62"/>
+      <c r="M45" s="63"/>
+      <c r="N45" s="63"/>
+      <c r="O45" s="63"/>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I46" s="54"/>
+      <c r="J46" s="62"/>
+      <c r="K46" s="62"/>
+      <c r="L46" s="62"/>
+      <c r="M46" s="63"/>
+      <c r="N46" s="63"/>
+      <c r="O46" s="63"/>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I47" s="56"/>
+      <c r="J47" s="62"/>
+      <c r="K47" s="62"/>
+      <c r="L47" s="62"/>
+      <c r="M47" s="63"/>
+      <c r="N47" s="63"/>
+      <c r="O47" s="63"/>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="I48" s="56"/>
+      <c r="J48" s="62"/>
+      <c r="K48" s="62"/>
+      <c r="L48" s="62"/>
+      <c r="M48" s="63"/>
+      <c r="N48" s="63"/>
+      <c r="O48" s="63"/>
+    </row>
+    <row r="49" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I49" s="54"/>
+      <c r="J49" s="62"/>
+      <c r="K49" s="62"/>
+      <c r="L49" s="62"/>
+      <c r="M49" s="63"/>
+      <c r="N49" s="63"/>
+      <c r="O49" s="63"/>
+    </row>
+    <row r="50" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I50" s="63"/>
+      <c r="J50" s="62"/>
+      <c r="K50" s="62"/>
+      <c r="L50" s="62"/>
+      <c r="M50" s="63"/>
+      <c r="N50" s="63"/>
+      <c r="O50" s="63"/>
+    </row>
+    <row r="51" spans="9:15" ht="19" x14ac:dyDescent="0.25">
+      <c r="I51" s="64"/>
+      <c r="J51" s="62"/>
+      <c r="K51" s="62"/>
+      <c r="L51" s="62"/>
+      <c r="M51" s="63"/>
+      <c r="N51" s="63"/>
+      <c r="O51" s="63"/>
+    </row>
+    <row r="52" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I52" s="65"/>
+      <c r="J52" s="63"/>
+      <c r="K52" s="65"/>
+      <c r="L52" s="65"/>
+      <c r="M52" s="63"/>
+      <c r="N52" s="63"/>
+      <c r="O52" s="63"/>
+    </row>
+    <row r="53" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I53" s="54"/>
+      <c r="J53" s="63"/>
+      <c r="K53" s="54"/>
+      <c r="L53" s="54"/>
+      <c r="M53" s="63"/>
+      <c r="N53" s="63"/>
+      <c r="O53" s="63"/>
+    </row>
+    <row r="54" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I54" s="54"/>
+      <c r="J54" s="63"/>
+      <c r="K54" s="54"/>
+      <c r="L54" s="62"/>
+      <c r="M54" s="63"/>
+      <c r="N54" s="63"/>
+      <c r="O54" s="63"/>
+    </row>
+    <row r="55" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I55" s="54"/>
+      <c r="J55" s="63"/>
+      <c r="K55" s="54"/>
+      <c r="L55" s="54"/>
+      <c r="M55" s="63"/>
+      <c r="N55" s="63"/>
+      <c r="O55" s="63"/>
+    </row>
+    <row r="56" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I56" s="54"/>
+      <c r="J56" s="63"/>
+      <c r="K56" s="54"/>
+      <c r="L56" s="54"/>
+      <c r="M56" s="63"/>
+      <c r="N56" s="63"/>
+      <c r="O56" s="63"/>
+    </row>
+    <row r="57" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I57" s="54"/>
+      <c r="J57" s="63"/>
+      <c r="K57" s="54"/>
+      <c r="L57" s="54"/>
+      <c r="M57" s="63"/>
+      <c r="N57" s="63"/>
+      <c r="O57" s="63"/>
+    </row>
+    <row r="58" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I58" s="54"/>
+      <c r="J58" s="63"/>
+      <c r="K58" s="54"/>
+      <c r="L58" s="54"/>
+      <c r="M58" s="63"/>
+      <c r="N58" s="63"/>
+      <c r="O58" s="63"/>
+    </row>
+    <row r="59" spans="9:15" x14ac:dyDescent="0.2">
+      <c r="I59" s="54"/>
+      <c r="J59" s="63"/>
+      <c r="K59" s="54"/>
+      <c r="L59" s="54"/>
+      <c r="M59" s="63"/>
+      <c r="N59" s="63"/>
+      <c r="O59" s="63"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="I2:O2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AD5C93A8-2810-7B41-B5ED-178AC117BBC1}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AC97"/>
   <sheetViews>
     <sheetView zoomScale="131" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:I70"/>
+      <selection pane="topRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -6422,7 +8127,7 @@
       <c r="AB1" s="30"/>
       <c r="AC1" s="30"/>
     </row>
-    <row r="2" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A2" s="31" t="s">
         <v>6</v>
       </c>
@@ -6452,7 +8157,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="3" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A3" s="31" t="s">
         <v>11</v>
       </c>
@@ -6482,7 +8187,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="4" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A4" s="31" t="s">
         <v>15</v>
       </c>
@@ -6511,7 +8216,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="5" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A5" s="31" t="s">
         <v>18</v>
       </c>
@@ -6537,13 +8242,13 @@
         <v>591</v>
       </c>
       <c r="I5" s="26" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="K5" s="23" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="6" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A6" s="31" t="s">
         <v>21</v>
       </c>
@@ -6575,7 +8280,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="7" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A7" s="31" t="s">
         <v>24</v>
       </c>
@@ -6598,7 +8303,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="8" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A8" s="31" t="s">
         <v>27</v>
       </c>
@@ -6627,7 +8332,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="9" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A9" s="34" t="s">
         <v>32</v>
       </c>
@@ -6650,13 +8355,13 @@
         <v>591</v>
       </c>
       <c r="I9" s="26" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="K9" s="23" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="10" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A10" s="34" t="s">
         <v>35</v>
       </c>
@@ -6685,7 +8390,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="11" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A11" s="34" t="s">
         <v>37</v>
       </c>
@@ -6708,7 +8413,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A12" s="34" t="s">
         <v>39</v>
       </c>
@@ -6719,7 +8424,7 @@
         <v>34</v>
       </c>
       <c r="D12" s="31" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E12" s="28" t="s">
         <v>524</v>
@@ -6760,7 +8465,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="14" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A14" s="31" t="s">
         <v>43</v>
       </c>
@@ -6789,7 +8494,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A15" s="34" t="s">
         <v>47</v>
       </c>
@@ -6818,7 +8523,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="16" spans="1:29" hidden="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A16" s="31" t="s">
         <v>49</v>
       </c>
@@ -6844,7 +8549,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="17" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A17" s="31" t="s">
         <v>52</v>
       </c>
@@ -6873,7 +8578,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="18" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A18" s="31" t="s">
         <v>54</v>
       </c>
@@ -6902,7 +8607,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="19" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A19" s="31" t="s">
         <v>59</v>
       </c>
@@ -6928,7 +8633,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="20" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
         <v>63</v>
       </c>
@@ -6954,7 +8659,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="21" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A21" s="31" t="s">
         <v>66</v>
       </c>
@@ -6977,7 +8682,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="22" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A22" s="31" t="s">
         <v>69</v>
       </c>
@@ -7000,7 +8705,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="23" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A23" s="31" t="s">
         <v>72</v>
       </c>
@@ -7023,7 +8728,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="24" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A24" s="31" t="s">
         <v>74</v>
       </c>
@@ -7048,7 +8753,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="25" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A25" s="31" t="s">
         <v>78</v>
       </c>
@@ -7107,7 +8812,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="27" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A27" s="31" t="s">
         <v>82</v>
       </c>
@@ -7130,7 +8835,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="28" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
         <v>84</v>
       </c>
@@ -7153,7 +8858,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="29" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A29" s="31" t="s">
         <v>86</v>
       </c>
@@ -7182,7 +8887,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="30" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A30" s="31" t="s">
         <v>88</v>
       </c>
@@ -7211,7 +8916,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="31" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A31" s="31" t="s">
         <v>90</v>
       </c>
@@ -7237,7 +8942,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="32" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A32" s="31" t="s">
         <v>94</v>
       </c>
@@ -7260,7 +8965,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="33" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A33" s="31" t="s">
         <v>96</v>
       </c>
@@ -7277,7 +8982,7 @@
         <v>573</v>
       </c>
       <c r="G33" s="28" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="H33" s="28" t="s">
         <v>495</v>
@@ -7286,7 +8991,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="34" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A34" s="31" t="s">
         <v>99</v>
       </c>
@@ -7310,7 +9015,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="34" t="s">
         <v>102</v>
       </c>
@@ -7337,7 +9042,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="36" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
         <v>104</v>
       </c>
@@ -7363,7 +9068,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="37" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A37" s="34" t="s">
         <v>106</v>
       </c>
@@ -7387,7 +9092,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="38" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A38" s="31" t="s">
         <v>108</v>
       </c>
@@ -7416,7 +9121,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="39" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A39" s="31" t="s">
         <v>110</v>
       </c>
@@ -7442,7 +9147,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="40" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
       <c r="B40" s="31" t="s">
         <v>112</v>
       </c>
@@ -7468,7 +9173,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="41" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A41" s="31" t="s">
         <v>114</v>
       </c>
@@ -7489,7 +9194,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="42" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A42" s="31"/>
       <c r="B42" s="38" t="s">
         <v>116</v>
@@ -7508,7 +9213,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="43" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A43" s="31"/>
       <c r="B43" s="38" t="s">
         <v>117</v>
@@ -7532,7 +9237,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="44" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A44" s="31"/>
       <c r="B44" s="38" t="s">
         <v>118</v>
@@ -7556,7 +9261,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="45" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A45" s="31"/>
       <c r="B45" s="38" t="s">
         <v>119</v>
@@ -7575,7 +9280,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="46" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A46" s="31"/>
       <c r="B46" s="38" t="s">
         <v>120</v>
@@ -7594,7 +9299,7 @@
         <v>343</v>
       </c>
     </row>
-    <row r="47" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A47" s="31"/>
       <c r="B47" s="38" t="s">
         <v>121</v>
@@ -7613,7 +9318,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="48" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A48" s="31"/>
       <c r="B48" s="38" t="s">
         <v>122</v>
@@ -7632,7 +9337,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="49" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A49" s="31"/>
       <c r="B49" s="38" t="s">
         <v>123</v>
@@ -7651,7 +9356,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="50" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A50" s="31"/>
       <c r="B50" s="38" t="s">
         <v>124</v>
@@ -7670,7 +9375,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="51" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A51" s="31"/>
       <c r="B51" s="38" t="s">
         <v>125</v>
@@ -7694,7 +9399,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="52" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A52" s="31"/>
       <c r="B52" s="34" t="s">
         <v>126</v>
@@ -7718,7 +9423,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="53" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A53" s="31"/>
       <c r="B53" s="34" t="s">
         <v>127</v>
@@ -7733,7 +9438,7 @@
         <v>524</v>
       </c>
       <c r="H53" s="43" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="K53" s="23" t="s">
         <v>375</v>
@@ -7765,7 +9470,7 @@
         <v>379</v>
       </c>
     </row>
-    <row r="55" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A55" s="31" t="s">
         <v>130</v>
       </c>
@@ -7785,7 +9490,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="56" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
         <v>132</v>
       </c>
@@ -7811,7 +9516,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="57" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A57" s="31" t="s">
         <v>134</v>
       </c>
@@ -7834,7 +9539,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="58" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A58" s="31" t="s">
         <v>136</v>
       </c>
@@ -7857,7 +9562,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="59" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A59" s="31" t="s">
         <v>138</v>
       </c>
@@ -7880,7 +9585,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="60" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A60" s="31" t="s">
         <v>140</v>
       </c>
@@ -7903,7 +9608,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="61" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A61" s="34" t="s">
         <v>142</v>
       </c>
@@ -7929,7 +9634,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="62" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A62" s="31" t="s">
         <v>144</v>
       </c>
@@ -7952,7 +9657,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="63" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A63" s="31" t="s">
         <v>147</v>
       </c>
@@ -7973,7 +9678,7 @@
         <v>405</v>
       </c>
     </row>
-    <row r="64" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
         <v>149</v>
       </c>
@@ -7997,7 +9702,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="65" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A65" s="31" t="s">
         <v>150</v>
       </c>
@@ -8153,7 +9858,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="71" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A71" s="31" t="s">
         <v>163</v>
       </c>
@@ -8176,7 +9881,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="72" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A72" s="34" t="s">
         <v>166</v>
       </c>
@@ -8199,7 +9904,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="73" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A73" s="31" t="s">
         <v>168</v>
       </c>
@@ -8210,7 +9915,7 @@
         <v>34</v>
       </c>
       <c r="D73" s="28" t="s">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="E73" s="28" t="s">
         <v>524</v>
@@ -8371,24 +10076,6 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I73" xr:uid="{AD5C93A8-2810-7B41-B5ED-178AC117BBC1}">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Yes"/>
-        <filter val="Yes (?)"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="7">
-      <filters>
-        <filter val="?"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="8">
-      <filters>
-        <filter val="?"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{BA907ADC-7EF1-4D4F-A048-64EE4D3C3FC2}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{D6EA18C4-DFE3-2344-9A95-9AD7D8FA8901}"/>
@@ -8452,7 +10139,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -8461,7 +10148,7 @@
   <sheetViews>
     <sheetView zoomScale="134" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -9526,22 +11213,24 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:X1003"/>
   <sheetViews>
-    <sheetView zoomScale="125" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H1" sqref="H1:L1048576"/>
+    <sheetView zoomScale="138" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="42.5" customWidth="1"/>
-    <col min="2" max="6" width="14.5" customWidth="1"/>
+    <col min="2" max="3" width="14.5" customWidth="1"/>
+    <col min="4" max="4" width="16.5" customWidth="1"/>
+    <col min="5" max="6" width="14.5" customWidth="1"/>
     <col min="8" max="12" width="0" hidden="1" customWidth="1"/>
     <col min="13" max="13" width="11.83203125" customWidth="1"/>
     <col min="14" max="14" width="9.5" customWidth="1"/>
@@ -12950,7 +14639,6 @@
     <row r="1002" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1003" ht="15.75" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
-  <autoFilter ref="G2:O98" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="1">
     <mergeCell ref="M1:O1"/>
   </mergeCells>
@@ -12963,15 +14651,15 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="125" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView zoomScale="125" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/products/facilities/medical-centers/services-taxonomy/taxonomy-research-2021/services-research-categorization-Oct2021.xlsx
+++ b/products/facilities/medical-centers/services-taxonomy/taxonomy-research-2021/services-research-categorization-Oct2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nick/Downloads/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C54EDF36-F1A6-C149-B656-B670D5BF32E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2D0676E-C77D-3B4A-ABC6-9E0C8621E78D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-40" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-60" yWindow="500" windowWidth="35840" windowHeight="20200" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Research Groups" sheetId="8" r:id="rId1"/>
@@ -1976,7 +1976,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2313" uniqueCount="638">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2332" uniqueCount="638">
   <si>
     <t>TASK: As a Veteran, I am trying to</t>
   </si>
@@ -4236,10 +4236,7 @@
     <t>"Other" services requiring discovery</t>
   </si>
   <si>
-    <t>Validating category - closed sort</t>
-  </si>
-  <si>
-    <t>Discovering category - hybrid sort</t>
+    <t>Validating category</t>
   </si>
   <si>
     <t>Benefits services (not at VAMC) - for future taxonomy research</t>
@@ -4254,12 +4251,6 @@
     <t>Health care management</t>
   </si>
   <si>
-    <t>Validation Research</t>
-  </si>
-  <si>
-    <t>Discovery Research</t>
-  </si>
-  <si>
     <t>FOIA Requests</t>
   </si>
   <si>
@@ -4323,20 +4314,29 @@
     <t>*add new service*</t>
   </si>
   <si>
-    <t>"Other" services requiring discovery research</t>
-  </si>
-  <si>
     <t>Existing Services Research</t>
   </si>
   <si>
     <t>Existing categories</t>
+  </si>
+  <si>
+    <t>Discovering category</t>
+  </si>
+  <si>
+    <t>Flagged for future research</t>
+  </si>
+  <si>
+    <t>First Notice of Death (FNOD)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Validating category </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="37" x14ac:knownFonts="1">
+  <fonts count="39" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -4564,6 +4564,12 @@
       <family val="2"/>
     </font>
     <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <b/>
       <sz val="14"/>
       <color theme="1"/>
@@ -4577,6 +4583,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="15">
@@ -4678,7 +4689,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -4744,10 +4755,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="31" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -4761,7 +4773,7 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="36" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="37" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="11" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -4772,6 +4784,10 @@
     </xf>
     <xf numFmtId="0" fontId="30" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="14" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="38" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="37" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -5005,15 +5021,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54AAD27F-6AD0-5647-A54B-5E20198453CD}">
-  <dimension ref="A1:D109"/>
+  <dimension ref="A1:D133"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
-      <selection activeCell="C83" sqref="C83"/>
+    <sheetView tabSelected="1" topLeftCell="A104" zoomScale="125" workbookViewId="0">
+      <selection activeCell="A130" sqref="A130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="38.33203125" style="28" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="48.83203125" style="28" customWidth="1"/>
     <col min="2" max="2" width="52" style="28" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="38.33203125" style="28" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="24.1640625" style="28" bestFit="1" customWidth="1"/>
@@ -5021,33 +5037,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A1" s="60" t="s">
-        <v>628</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="A1" s="61" t="s">
+        <v>625</v>
+      </c>
+      <c r="B1" s="61"/>
+      <c r="C1" s="61"/>
+      <c r="D1" s="61"/>
     </row>
     <row r="3" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A3" s="59" t="s">
+      <c r="A3" s="60" t="s">
+        <v>608</v>
+      </c>
+      <c r="B3" s="60"/>
+      <c r="C3" s="60"/>
+      <c r="D3" s="60"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="71" t="s">
+        <v>606</v>
+      </c>
+      <c r="B4" s="72" t="s">
+        <v>634</v>
+      </c>
+      <c r="C4" s="62" t="s">
+        <v>633</v>
+      </c>
+      <c r="D4" s="62" t="s">
         <v>609</v>
-      </c>
-      <c r="B3" s="59"/>
-      <c r="C3" s="59"/>
-      <c r="D3" s="59"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="70" t="s">
-        <v>606</v>
-      </c>
-      <c r="B4" s="71" t="s">
-        <v>607</v>
-      </c>
-      <c r="C4" s="61" t="s">
-        <v>637</v>
-      </c>
-      <c r="D4" s="61" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
@@ -5069,13 +5085,13 @@
         <v>12</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="C6" s="28" t="s">
         <v>202</v>
       </c>
       <c r="D6" s="28" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
@@ -5083,7 +5099,7 @@
         <v>16</v>
       </c>
       <c r="B7" s="34" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="C7" s="28" t="s">
         <v>209</v>
@@ -5094,7 +5110,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="34" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>129</v>
@@ -5103,7 +5119,7 @@
         <v>198</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
@@ -5111,13 +5127,13 @@
         <v>22</v>
       </c>
       <c r="B9" s="34" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="C9" s="28" t="s">
         <v>245</v>
       </c>
       <c r="D9" s="28" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
@@ -5136,7 +5152,7 @@
         <v>36</v>
       </c>
       <c r="B11" s="31" t="s">
-        <v>158</v>
+        <v>629</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
@@ -5187,7 +5203,7 @@
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="31" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
@@ -5227,7 +5243,7 @@
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="31" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
@@ -5267,34 +5283,34 @@
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="34" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A37" s="31" t="s">
+        <v>619</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39" s="60" t="s">
+        <v>620</v>
+      </c>
+      <c r="B39" s="60"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="60"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="71" t="s">
+        <v>621</v>
+      </c>
+      <c r="B40" s="71" t="s">
         <v>622</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A39" s="59" t="s">
+      <c r="C40" s="62" t="s">
         <v>623</v>
       </c>
-      <c r="B39" s="59"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="59"/>
-    </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A40" s="70" t="s">
-        <v>624</v>
-      </c>
-      <c r="B40" s="70" t="s">
-        <v>625</v>
-      </c>
-      <c r="C40" s="61" t="s">
+      <c r="D40" s="62" t="s">
         <v>626</v>
-      </c>
-      <c r="D40" s="61" t="s">
-        <v>629</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.2">
@@ -5322,7 +5338,7 @@
         <v>389</v>
       </c>
       <c r="D42" s="28" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.2">
@@ -5330,7 +5346,7 @@
         <v>16</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="C43" s="28" t="s">
         <v>478</v>
@@ -5338,10 +5354,10 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A44" s="34" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B44" s="34" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="C44" s="28" t="s">
         <v>498</v>
@@ -5440,7 +5456,7 @@
         <v>557</v>
       </c>
       <c r="B53" s="31" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
       <c r="C53" s="28" t="s">
         <v>334</v>
@@ -5470,7 +5486,7 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="31" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="C56" s="38" t="s">
         <v>458</v>
@@ -5525,7 +5541,7 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="31" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
@@ -5565,262 +5581,377 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="34" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A73" s="31" t="s">
-        <v>622</v>
-      </c>
+        <v>619</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="31"/>
     </row>
     <row r="75" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A75" s="68" t="s">
+      <c r="A75" s="77" t="s">
+        <v>635</v>
+      </c>
+      <c r="B75" s="77"/>
+      <c r="C75" s="77"/>
+      <c r="D75" s="77"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="55" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="76" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="55" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="55" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A81" s="55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A82" s="55" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A83" s="55" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A84" s="55" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A85" s="55" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A86" s="55" t="s">
         <v>636</v>
       </c>
-      <c r="B75" s="68"/>
-      <c r="C75" s="68"/>
-      <c r="D75" s="68"/>
-    </row>
-    <row r="77" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A77" s="72" t="s">
-        <v>612</v>
-      </c>
-      <c r="B77" s="72"/>
-      <c r="C77" s="72"/>
-      <c r="D77" s="72"/>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A78" s="73" t="s">
-        <v>606</v>
-      </c>
-      <c r="B78" s="73" t="s">
-        <v>607</v>
-      </c>
-      <c r="C78" s="69" t="s">
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A87" s="55" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A88" s="55" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A89" s="55" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A90" s="55" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="91" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A91" s="55" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="92" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A92" s="55" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="93" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A93" s="76" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="94" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A94" s="76" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="95" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A95" s="55" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="96" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A96" s="55" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="55" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="55" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="55" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="55" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="55" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="55" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="55" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="55" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="31"/>
+    </row>
+    <row r="106" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A106" s="69" t="s">
+        <v>632</v>
+      </c>
+      <c r="B106" s="69"/>
+      <c r="C106" s="69"/>
+      <c r="D106" s="69"/>
+    </row>
+    <row r="108" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A108" s="73" t="s">
+        <v>608</v>
+      </c>
+      <c r="B108" s="73"/>
+      <c r="C108" s="73"/>
+      <c r="D108" s="73"/>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="74" t="s">
         <v>637</v>
       </c>
-      <c r="D78" s="69" t="s">
+      <c r="B109" s="74" t="s">
+        <v>634</v>
+      </c>
+      <c r="C109" s="70" t="s">
+        <v>633</v>
+      </c>
+      <c r="D109" s="70" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="28" t="s">
+        <v>205</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="C110" s="28" t="s">
+        <v>165</v>
+      </c>
+      <c r="D110" s="28" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="28" t="s">
+        <v>237</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>341</v>
+      </c>
+      <c r="C111" s="28" t="s">
+        <v>202</v>
+      </c>
+      <c r="D111" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>468</v>
+      </c>
+      <c r="C112" s="28" t="s">
+        <v>209</v>
+      </c>
+      <c r="D112" s="28" t="s">
         <v>610</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A79" s="28" t="s">
-        <v>205</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="C79" s="28" t="s">
-        <v>165</v>
-      </c>
-      <c r="D79" s="28" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A80" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="B80" s="28" t="s">
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="28" t="s">
         <v>249</v>
       </c>
-      <c r="C80" s="28" t="s">
-        <v>202</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A81" s="28" t="s">
-        <v>243</v>
-      </c>
-      <c r="B81" s="28" t="s">
+      <c r="B113" s="28" t="s">
+        <v>478</v>
+      </c>
+      <c r="C113" s="28" t="s">
+        <v>198</v>
+      </c>
+      <c r="D113" s="28" t="s">
+        <v>624</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="C81" s="28" t="s">
-        <v>209</v>
-      </c>
-      <c r="D81" s="28" t="s">
-        <v>611</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A82" s="28" t="s">
-        <v>249</v>
-      </c>
-      <c r="B82" s="28" t="s">
+      <c r="B114" s="28" t="s">
+        <v>498</v>
+      </c>
+      <c r="C114" s="28" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="28" t="s">
+        <v>331</v>
+      </c>
+      <c r="B115" s="28" t="s">
+        <v>509</v>
+      </c>
+      <c r="C115" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="28" t="s">
+        <v>337</v>
+      </c>
+      <c r="B116" s="28" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="28" t="s">
         <v>341</v>
       </c>
-      <c r="C82" s="28" t="s">
-        <v>198</v>
-      </c>
-      <c r="D82" s="28" t="s">
-        <v>627</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A83" s="28" t="s">
-        <v>289</v>
-      </c>
-      <c r="B83" s="28" t="s">
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="28" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="28" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="28" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="28" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="28" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="28" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="28" t="s">
         <v>468</v>
       </c>
-      <c r="C83" s="28" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A84" s="28" t="s">
-        <v>331</v>
-      </c>
-      <c r="B84" s="28" t="s">
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="28" t="s">
         <v>478</v>
       </c>
-      <c r="C84" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A85" s="28" t="s">
-        <v>337</v>
-      </c>
-      <c r="B85" s="28" t="s">
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="28" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="28" t="s">
         <v>498</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A86" s="28" t="s">
-        <v>341</v>
-      </c>
-      <c r="B86" s="28" t="s">
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="28" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A87" s="28" t="s">
-        <v>355</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A88" s="28" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A89" s="28" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A90" s="28" t="s">
-        <v>429</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A91" s="28" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A92" s="28" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A93" s="28" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A94" s="28" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A95" s="28" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A96" s="28" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A97" s="28" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A98" s="28" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A99" s="28" t="s">
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="28" t="s">
         <v>513</v>
       </c>
     </row>
-    <row r="101" spans="1:4" ht="19" x14ac:dyDescent="0.25">
-      <c r="A101" s="72" t="s">
-        <v>613</v>
-      </c>
-      <c r="B101" s="72"/>
-      <c r="C101" s="72"/>
-      <c r="D101" s="72"/>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A102" s="74" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A103" s="28" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A104" s="28" t="s">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A105" s="28" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A106" s="28" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A107" s="28" t="s">
-        <v>498</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A108" s="28" t="s">
-        <v>509</v>
-      </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A109" s="28" t="s">
-        <v>519</v>
-      </c>
+    <row r="132" spans="1:4" ht="19" x14ac:dyDescent="0.25">
+      <c r="A132" s="73"/>
+      <c r="B132" s="73"/>
+      <c r="C132" s="73"/>
+      <c r="D132" s="73"/>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="75"/>
     </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="7">
     <mergeCell ref="A3:D3"/>
     <mergeCell ref="A39:D39"/>
-    <mergeCell ref="A77:D77"/>
+    <mergeCell ref="A108:D108"/>
     <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A106:D106"/>
+    <mergeCell ref="A132:D132"/>
     <mergeCell ref="A75:D75"/>
-    <mergeCell ref="A101:D101"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId1"/>
@@ -5832,7 +5963,7 @@
   <dimension ref="A1:N45"/>
   <sheetViews>
     <sheetView zoomScale="135" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.2"/>
@@ -5856,12 +5987,12 @@
   <sheetData>
     <row r="1" spans="1:14" ht="19" x14ac:dyDescent="0.25">
       <c r="A1" s="46" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A2" s="53" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B2" s="53"/>
       <c r="C2" s="44"/>
@@ -6877,7 +7008,7 @@
       <c r="G4" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="I4" s="57" t="s">
+      <c r="I4" s="58" t="s">
         <v>243</v>
       </c>
       <c r="L4" s="23" t="s">
@@ -6912,7 +7043,7 @@
       <c r="G5" s="14" t="b">
         <v>1</v>
       </c>
-      <c r="I5" s="57" t="s">
+      <c r="I5" s="58" t="s">
         <v>249</v>
       </c>
       <c r="L5" s="23" t="s">
@@ -7203,13 +7334,13 @@
       <c r="G14" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="I14" s="67"/>
-      <c r="J14" s="67"/>
-      <c r="K14" s="67"/>
-      <c r="L14" s="67"/>
-      <c r="M14" s="67"/>
-      <c r="N14" s="67"/>
-      <c r="O14" s="67"/>
+      <c r="I14" s="68"/>
+      <c r="J14" s="68"/>
+      <c r="K14" s="68"/>
+      <c r="L14" s="68"/>
+      <c r="M14" s="68"/>
+      <c r="N14" s="68"/>
+      <c r="O14" s="68"/>
     </row>
     <row r="15" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="54" t="s">
@@ -7227,13 +7358,13 @@
       <c r="G15" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="I15" s="66"/>
-      <c r="J15" s="62"/>
-      <c r="K15" s="55"/>
-      <c r="L15" s="62"/>
-      <c r="M15" s="55"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="63"/>
+      <c r="K15" s="56"/>
+      <c r="L15" s="63"/>
+      <c r="M15" s="56"/>
       <c r="N15" s="52"/>
-      <c r="O15" s="55"/>
+      <c r="O15" s="56"/>
     </row>
     <row r="16" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="54" t="s">
@@ -7258,11 +7389,11 @@
         <v>1</v>
       </c>
       <c r="I16" s="54"/>
-      <c r="J16" s="62"/>
+      <c r="J16" s="63"/>
       <c r="K16" s="54"/>
-      <c r="L16" s="62"/>
+      <c r="L16" s="63"/>
       <c r="M16" s="52"/>
-      <c r="N16" s="62"/>
+      <c r="N16" s="63"/>
       <c r="O16" s="52"/>
     </row>
     <row r="17" spans="1:15" s="24" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
@@ -7282,11 +7413,11 @@
         <v>0</v>
       </c>
       <c r="I17" s="54"/>
-      <c r="J17" s="62"/>
+      <c r="J17" s="63"/>
       <c r="K17" s="54"/>
-      <c r="L17" s="62"/>
+      <c r="L17" s="63"/>
       <c r="M17" s="52"/>
-      <c r="N17" s="62"/>
+      <c r="N17" s="63"/>
       <c r="O17" s="52"/>
     </row>
     <row r="18" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7312,11 +7443,11 @@
         <v>1</v>
       </c>
       <c r="I18" s="54"/>
-      <c r="J18" s="62"/>
+      <c r="J18" s="63"/>
       <c r="K18" s="54"/>
-      <c r="L18" s="62"/>
+      <c r="L18" s="63"/>
       <c r="M18" s="52"/>
-      <c r="N18" s="62"/>
+      <c r="N18" s="63"/>
       <c r="O18" s="52"/>
     </row>
     <row r="19" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7342,11 +7473,11 @@
         <v>1</v>
       </c>
       <c r="I19" s="54"/>
-      <c r="J19" s="62"/>
+      <c r="J19" s="63"/>
       <c r="K19" s="54"/>
-      <c r="L19" s="62"/>
+      <c r="L19" s="63"/>
       <c r="M19" s="52"/>
-      <c r="N19" s="62"/>
+      <c r="N19" s="63"/>
       <c r="O19" s="52"/>
     </row>
     <row r="20" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7372,11 +7503,11 @@
         <v>1</v>
       </c>
       <c r="I20" s="54"/>
-      <c r="J20" s="62"/>
+      <c r="J20" s="63"/>
       <c r="K20" s="54"/>
-      <c r="L20" s="62"/>
+      <c r="L20" s="63"/>
       <c r="M20" s="52"/>
-      <c r="N20" s="62"/>
+      <c r="N20" s="63"/>
       <c r="O20" s="52"/>
     </row>
     <row r="21" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -7396,12 +7527,12 @@
         <v>0</v>
       </c>
       <c r="I21" s="54"/>
-      <c r="J21" s="62"/>
+      <c r="J21" s="63"/>
       <c r="K21" s="54"/>
-      <c r="L21" s="62"/>
+      <c r="L21" s="63"/>
       <c r="M21" s="52"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
     </row>
     <row r="22" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="54" t="s">
@@ -7423,12 +7554,12 @@
         <v>1</v>
       </c>
       <c r="I22" s="54"/>
-      <c r="J22" s="62"/>
+      <c r="J22" s="63"/>
       <c r="K22" s="54"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
     </row>
     <row r="23" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="54" t="s">
@@ -7450,12 +7581,12 @@
         <v>0</v>
       </c>
       <c r="I23" s="54"/>
-      <c r="J23" s="62"/>
+      <c r="J23" s="63"/>
       <c r="K23" s="54"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
     </row>
     <row r="24" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="54" t="s">
@@ -7474,12 +7605,12 @@
         <v>0</v>
       </c>
       <c r="I24" s="54"/>
-      <c r="J24" s="62"/>
+      <c r="J24" s="63"/>
       <c r="K24" s="54"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
     </row>
     <row r="25" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="54" t="s">
@@ -7498,12 +7629,12 @@
         <v>0</v>
       </c>
       <c r="I25" s="54"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
     </row>
     <row r="26" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="54" t="s">
@@ -7525,12 +7656,12 @@
         <v>0</v>
       </c>
       <c r="I26" s="54"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
     </row>
     <row r="27" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="54" t="s">
@@ -7549,12 +7680,12 @@
         <v>0</v>
       </c>
       <c r="I27" s="54"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
     </row>
     <row r="28" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="54" t="s">
@@ -7576,12 +7707,12 @@
         <v>0</v>
       </c>
       <c r="I28" s="54"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
     </row>
     <row r="29" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="54" t="s">
@@ -7603,12 +7734,12 @@
         <v>0</v>
       </c>
       <c r="I29" s="54"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
     </row>
     <row r="30" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="54" t="s">
@@ -7630,12 +7761,12 @@
         <v>0</v>
       </c>
       <c r="I30" s="54"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
     </row>
     <row r="31" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="54" t="s">
@@ -7654,12 +7785,12 @@
         <v>0</v>
       </c>
       <c r="I31" s="54"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
     </row>
     <row r="32" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="54" t="s">
@@ -7681,12 +7812,12 @@
         <v>0</v>
       </c>
       <c r="I32" s="54"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
     </row>
     <row r="33" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="54" t="s">
@@ -7705,12 +7836,12 @@
         <v>0</v>
       </c>
       <c r="I33" s="54"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
     </row>
     <row r="34" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="54" t="s">
@@ -7729,12 +7860,12 @@
         <v>0</v>
       </c>
       <c r="I34" s="54"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
     </row>
     <row r="35" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="54" t="s">
@@ -7756,12 +7887,12 @@
         <v>0</v>
       </c>
       <c r="I35" s="54"/>
-      <c r="J35" s="62"/>
-      <c r="K35" s="62"/>
-      <c r="L35" s="62"/>
-      <c r="M35" s="62"/>
-      <c r="N35" s="62"/>
-      <c r="O35" s="62"/>
+      <c r="J35" s="63"/>
+      <c r="K35" s="63"/>
+      <c r="L35" s="63"/>
+      <c r="M35" s="63"/>
+      <c r="N35" s="63"/>
+      <c r="O35" s="63"/>
     </row>
     <row r="36" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="54" t="s">
@@ -7786,12 +7917,12 @@
         <v>0</v>
       </c>
       <c r="I36" s="54"/>
-      <c r="J36" s="62"/>
-      <c r="K36" s="62"/>
-      <c r="L36" s="62"/>
-      <c r="M36" s="62"/>
-      <c r="N36" s="62"/>
-      <c r="O36" s="62"/>
+      <c r="J36" s="63"/>
+      <c r="K36" s="63"/>
+      <c r="L36" s="63"/>
+      <c r="M36" s="63"/>
+      <c r="N36" s="63"/>
+      <c r="O36" s="63"/>
     </row>
     <row r="37" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="54" t="s">
@@ -7813,12 +7944,12 @@
         <v>0</v>
       </c>
       <c r="I37" s="54"/>
-      <c r="J37" s="62"/>
-      <c r="K37" s="62"/>
-      <c r="L37" s="62"/>
-      <c r="M37" s="63"/>
-      <c r="N37" s="63"/>
-      <c r="O37" s="63"/>
+      <c r="J37" s="63"/>
+      <c r="K37" s="63"/>
+      <c r="L37" s="63"/>
+      <c r="M37" s="64"/>
+      <c r="N37" s="64"/>
+      <c r="O37" s="64"/>
     </row>
     <row r="38" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="54" t="s">
@@ -7839,13 +7970,13 @@
       <c r="G38" s="23" t="b">
         <v>0</v>
       </c>
-      <c r="I38" s="58"/>
-      <c r="J38" s="62"/>
-      <c r="K38" s="62"/>
-      <c r="L38" s="62"/>
-      <c r="M38" s="63"/>
-      <c r="N38" s="63"/>
-      <c r="O38" s="63"/>
+      <c r="I38" s="59"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="64"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
     </row>
     <row r="39" spans="1:15" s="24" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="23"/>
@@ -7853,193 +7984,193 @@
       <c r="E39" s="14"/>
       <c r="F39" s="23"/>
       <c r="G39" s="23"/>
-      <c r="I39" s="56"/>
-      <c r="J39" s="62"/>
-      <c r="K39" s="62"/>
-      <c r="L39" s="62"/>
-      <c r="M39" s="63"/>
-      <c r="N39" s="63"/>
-      <c r="O39" s="63"/>
+      <c r="I39" s="57"/>
+      <c r="J39" s="63"/>
+      <c r="K39" s="63"/>
+      <c r="L39" s="63"/>
+      <c r="M39" s="64"/>
+      <c r="N39" s="64"/>
+      <c r="O39" s="64"/>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I40" s="54"/>
-      <c r="J40" s="62"/>
-      <c r="K40" s="62"/>
-      <c r="L40" s="62"/>
-      <c r="M40" s="63"/>
-      <c r="N40" s="63"/>
-      <c r="O40" s="63"/>
+      <c r="J40" s="63"/>
+      <c r="K40" s="63"/>
+      <c r="L40" s="63"/>
+      <c r="M40" s="64"/>
+      <c r="N40" s="64"/>
+      <c r="O40" s="64"/>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I41" s="54"/>
-      <c r="J41" s="62"/>
-      <c r="K41" s="62"/>
-      <c r="L41" s="62"/>
-      <c r="M41" s="63"/>
-      <c r="N41" s="63"/>
-      <c r="O41" s="63"/>
+      <c r="J41" s="63"/>
+      <c r="K41" s="63"/>
+      <c r="L41" s="63"/>
+      <c r="M41" s="64"/>
+      <c r="N41" s="64"/>
+      <c r="O41" s="64"/>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I42" s="54"/>
-      <c r="J42" s="62"/>
-      <c r="K42" s="62"/>
-      <c r="L42" s="62"/>
-      <c r="M42" s="63"/>
-      <c r="N42" s="63"/>
-      <c r="O42" s="63"/>
+      <c r="J42" s="63"/>
+      <c r="K42" s="63"/>
+      <c r="L42" s="63"/>
+      <c r="M42" s="64"/>
+      <c r="N42" s="64"/>
+      <c r="O42" s="64"/>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I43" s="54"/>
-      <c r="J43" s="62"/>
-      <c r="K43" s="62"/>
-      <c r="L43" s="62"/>
-      <c r="M43" s="63"/>
-      <c r="N43" s="63"/>
-      <c r="O43" s="63"/>
+      <c r="J43" s="63"/>
+      <c r="K43" s="63"/>
+      <c r="L43" s="63"/>
+      <c r="M43" s="64"/>
+      <c r="N43" s="64"/>
+      <c r="O43" s="64"/>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I44" s="54"/>
-      <c r="J44" s="62"/>
-      <c r="K44" s="62"/>
-      <c r="L44" s="62"/>
-      <c r="M44" s="63"/>
-      <c r="N44" s="63"/>
-      <c r="O44" s="63"/>
+      <c r="J44" s="63"/>
+      <c r="K44" s="63"/>
+      <c r="L44" s="63"/>
+      <c r="M44" s="64"/>
+      <c r="N44" s="64"/>
+      <c r="O44" s="64"/>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I45" s="54"/>
-      <c r="J45" s="62"/>
-      <c r="K45" s="62"/>
-      <c r="L45" s="62"/>
-      <c r="M45" s="63"/>
-      <c r="N45" s="63"/>
-      <c r="O45" s="63"/>
+      <c r="J45" s="63"/>
+      <c r="K45" s="63"/>
+      <c r="L45" s="63"/>
+      <c r="M45" s="64"/>
+      <c r="N45" s="64"/>
+      <c r="O45" s="64"/>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="I46" s="54"/>
-      <c r="J46" s="62"/>
-      <c r="K46" s="62"/>
-      <c r="L46" s="62"/>
-      <c r="M46" s="63"/>
-      <c r="N46" s="63"/>
-      <c r="O46" s="63"/>
+      <c r="J46" s="63"/>
+      <c r="K46" s="63"/>
+      <c r="L46" s="63"/>
+      <c r="M46" s="64"/>
+      <c r="N46" s="64"/>
+      <c r="O46" s="64"/>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I47" s="56"/>
-      <c r="J47" s="62"/>
-      <c r="K47" s="62"/>
-      <c r="L47" s="62"/>
-      <c r="M47" s="63"/>
-      <c r="N47" s="63"/>
-      <c r="O47" s="63"/>
+      <c r="I47" s="57"/>
+      <c r="J47" s="63"/>
+      <c r="K47" s="63"/>
+      <c r="L47" s="63"/>
+      <c r="M47" s="64"/>
+      <c r="N47" s="64"/>
+      <c r="O47" s="64"/>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.2">
-      <c r="I48" s="56"/>
-      <c r="J48" s="62"/>
-      <c r="K48" s="62"/>
-      <c r="L48" s="62"/>
-      <c r="M48" s="63"/>
-      <c r="N48" s="63"/>
-      <c r="O48" s="63"/>
+      <c r="I48" s="57"/>
+      <c r="J48" s="63"/>
+      <c r="K48" s="63"/>
+      <c r="L48" s="63"/>
+      <c r="M48" s="64"/>
+      <c r="N48" s="64"/>
+      <c r="O48" s="64"/>
     </row>
     <row r="49" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I49" s="54"/>
-      <c r="J49" s="62"/>
-      <c r="K49" s="62"/>
-      <c r="L49" s="62"/>
-      <c r="M49" s="63"/>
-      <c r="N49" s="63"/>
-      <c r="O49" s="63"/>
+      <c r="J49" s="63"/>
+      <c r="K49" s="63"/>
+      <c r="L49" s="63"/>
+      <c r="M49" s="64"/>
+      <c r="N49" s="64"/>
+      <c r="O49" s="64"/>
     </row>
     <row r="50" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I50" s="63"/>
-      <c r="J50" s="62"/>
-      <c r="K50" s="62"/>
-      <c r="L50" s="62"/>
-      <c r="M50" s="63"/>
-      <c r="N50" s="63"/>
-      <c r="O50" s="63"/>
+      <c r="I50" s="64"/>
+      <c r="J50" s="63"/>
+      <c r="K50" s="63"/>
+      <c r="L50" s="63"/>
+      <c r="M50" s="64"/>
+      <c r="N50" s="64"/>
+      <c r="O50" s="64"/>
     </row>
     <row r="51" spans="9:15" ht="19" x14ac:dyDescent="0.25">
-      <c r="I51" s="64"/>
-      <c r="J51" s="62"/>
-      <c r="K51" s="62"/>
-      <c r="L51" s="62"/>
-      <c r="M51" s="63"/>
-      <c r="N51" s="63"/>
-      <c r="O51" s="63"/>
+      <c r="I51" s="65"/>
+      <c r="J51" s="63"/>
+      <c r="K51" s="63"/>
+      <c r="L51" s="63"/>
+      <c r="M51" s="64"/>
+      <c r="N51" s="64"/>
+      <c r="O51" s="64"/>
     </row>
     <row r="52" spans="9:15" x14ac:dyDescent="0.2">
-      <c r="I52" s="65"/>
-      <c r="J52" s="63"/>
-      <c r="K52" s="65"/>
-      <c r="L52" s="65"/>
-      <c r="M52" s="63"/>
-      <c r="N52" s="63"/>
-      <c r="O52" s="63"/>
+      <c r="I52" s="66"/>
+      <c r="J52" s="64"/>
+      <c r="K52" s="66"/>
+      <c r="L52" s="66"/>
+      <c r="M52" s="64"/>
+      <c r="N52" s="64"/>
+      <c r="O52" s="64"/>
     </row>
     <row r="53" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I53" s="54"/>
-      <c r="J53" s="63"/>
+      <c r="J53" s="64"/>
       <c r="K53" s="54"/>
       <c r="L53" s="54"/>
-      <c r="M53" s="63"/>
-      <c r="N53" s="63"/>
-      <c r="O53" s="63"/>
+      <c r="M53" s="64"/>
+      <c r="N53" s="64"/>
+      <c r="O53" s="64"/>
     </row>
     <row r="54" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I54" s="54"/>
-      <c r="J54" s="63"/>
+      <c r="J54" s="64"/>
       <c r="K54" s="54"/>
-      <c r="L54" s="62"/>
-      <c r="M54" s="63"/>
-      <c r="N54" s="63"/>
-      <c r="O54" s="63"/>
+      <c r="L54" s="63"/>
+      <c r="M54" s="64"/>
+      <c r="N54" s="64"/>
+      <c r="O54" s="64"/>
     </row>
     <row r="55" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I55" s="54"/>
-      <c r="J55" s="63"/>
+      <c r="J55" s="64"/>
       <c r="K55" s="54"/>
       <c r="L55" s="54"/>
-      <c r="M55" s="63"/>
-      <c r="N55" s="63"/>
-      <c r="O55" s="63"/>
+      <c r="M55" s="64"/>
+      <c r="N55" s="64"/>
+      <c r="O55" s="64"/>
     </row>
     <row r="56" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I56" s="54"/>
-      <c r="J56" s="63"/>
+      <c r="J56" s="64"/>
       <c r="K56" s="54"/>
       <c r="L56" s="54"/>
-      <c r="M56" s="63"/>
-      <c r="N56" s="63"/>
-      <c r="O56" s="63"/>
+      <c r="M56" s="64"/>
+      <c r="N56" s="64"/>
+      <c r="O56" s="64"/>
     </row>
     <row r="57" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I57" s="54"/>
-      <c r="J57" s="63"/>
+      <c r="J57" s="64"/>
       <c r="K57" s="54"/>
       <c r="L57" s="54"/>
-      <c r="M57" s="63"/>
-      <c r="N57" s="63"/>
-      <c r="O57" s="63"/>
+      <c r="M57" s="64"/>
+      <c r="N57" s="64"/>
+      <c r="O57" s="64"/>
     </row>
     <row r="58" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I58" s="54"/>
-      <c r="J58" s="63"/>
+      <c r="J58" s="64"/>
       <c r="K58" s="54"/>
       <c r="L58" s="54"/>
-      <c r="M58" s="63"/>
-      <c r="N58" s="63"/>
-      <c r="O58" s="63"/>
+      <c r="M58" s="64"/>
+      <c r="N58" s="64"/>
+      <c r="O58" s="64"/>
     </row>
     <row r="59" spans="9:15" x14ac:dyDescent="0.2">
       <c r="I59" s="54"/>
-      <c r="J59" s="63"/>
+      <c r="J59" s="64"/>
       <c r="K59" s="54"/>
       <c r="L59" s="54"/>
-      <c r="M59" s="63"/>
-      <c r="N59" s="63"/>
-      <c r="O59" s="63"/>
+      <c r="M59" s="64"/>
+      <c r="N59" s="64"/>
+      <c r="O59" s="64"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -11220,8 +11351,8 @@
   </sheetPr>
   <dimension ref="A1:X1003"/>
   <sheetViews>
-    <sheetView zoomScale="138" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A27" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="C1" zoomScale="138" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
